--- a/(已处理)测试-0626.xlsx
+++ b/(已处理)测试-0626.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\L-PWDocument\Downloads\1-python\PythonWorkspace\mergeViewXlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpaces\PythonWorkSpace\mergeViewXlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF39D3A1-FF03-48B7-9E46-17C27CA5570B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98BADBC5-21EA-4D99-B43F-22815E9772A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3090" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -859,15 +859,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>165</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1904,14 +1904,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2294D101-CB89-41D8-B349-FF5428F78C43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CB2FBD-A4DB-4389-AAF3-4439AD9CB1DA}">
   <dimension ref="A2:BQ4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>153</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>157</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
